--- a/results/ranking_voters=300_projects=15.xlsx
+++ b/results/ranking_voters=300_projects=15.xlsx
@@ -480,52 +480,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -533,52 +533,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -586,52 +586,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -639,52 +639,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -692,25 +692,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -722,22 +722,22 @@
         <v>8</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -763,34 +763,34 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>10</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,52 +798,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -851,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -866,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -878,25 +878,25 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,25 +904,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -931,25 +931,25 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -957,25 +957,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -984,25 +984,25 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,16 +1010,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1040,22 +1040,22 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,25 +1063,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -1093,22 +1093,22 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,13 +1116,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -1146,22 +1146,22 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M14">
         <v>3</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,25 +1169,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>13</v>
@@ -1199,22 +1199,22 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1222,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1258,13 +1258,13 @@
         <v>13</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q16">
         <v>13</v>

--- a/results/ranking_voters=300_projects=15.xlsx
+++ b/results/ranking_voters=300_projects=15.xlsx
@@ -521,22 +521,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
@@ -545,28 +545,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -574,52 +574,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -627,52 +627,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -680,52 +680,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -733,52 +733,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
       <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
         <v>10</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -786,52 +786,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>14</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>14</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -839,52 +839,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
         <v>12</v>
       </c>
-      <c r="O8" t="n">
-        <v>10</v>
-      </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -892,52 +892,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -945,52 +945,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -998,25 +998,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
         <v>9</v>
@@ -1025,25 +1025,25 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1051,25 +1051,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
         <v>10</v>
@@ -1081,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="n">
         <v>5</v>
@@ -1104,25 +1104,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
@@ -1134,22 +1134,22 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1157,25 +1157,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
         <v>12</v>
@@ -1187,22 +1187,22 @@
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1210,25 +1210,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
         <v>13</v>
@@ -1240,22 +1240,22 @@
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1263,25 +1263,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
         <v>14</v>
@@ -1293,22 +1293,22 @@
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/results/ranking_voters=300_projects=15.xlsx
+++ b/results/ranking_voters=300_projects=15.xlsx
@@ -480,25 +480,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -507,25 +507,25 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -533,52 +533,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -586,22 +586,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>7</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -610,28 +610,28 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -639,52 +639,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -692,52 +692,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>8</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,52 +745,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,22 +798,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -822,28 +822,28 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>13</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -851,52 +851,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>7</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,31 +904,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>8</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -937,19 +937,19 @@
         <v>9</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,43 +966,43 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>9</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,25 +1010,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1043,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,25 +1063,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -1093,22 +1093,22 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,25 +1116,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>12</v>
@@ -1146,22 +1146,22 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,25 +1169,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>13</v>
@@ -1199,22 +1199,22 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1225,22 +1225,22 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1252,22 +1252,22 @@
         <v>4</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>4</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/results/ranking_voters=300_projects=15.xlsx
+++ b/results/ranking_voters=300_projects=15.xlsx
@@ -521,52 +521,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -574,22 +574,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>14</v>
@@ -601,25 +601,25 @@
         <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -627,52 +627,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -683,49 +683,49 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -733,52 +733,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -786,31 +786,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
         <v>4</v>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -839,52 +839,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -892,52 +892,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -945,52 +945,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -998,25 +998,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>9</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1051,22 +1051,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
         <v>7</v>
@@ -1075,28 +1075,28 @@
         <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1104,52 +1104,52 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1157,52 +1157,52 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
         <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K14" t="n">
         <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1210,52 +1210,52 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
         <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>13</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1266,22 +1266,22 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
         <v>14</v>
@@ -1293,22 +1293,22 @@
         <v>14</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P16" t="n">
         <v>13</v>
       </c>
       <c r="Q16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
